--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1175CD-4389-4F17-A321-329843F75864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B8230-A96F-4AB6-B7D0-EBD38AA252F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Camunda introduction and working</t>
+  </si>
+  <si>
+    <t>BPM overview</t>
+  </si>
+  <si>
+    <t>BPM Exercise Review Session</t>
+  </si>
+  <si>
+    <t>JAVA training</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>BPM process</t>
+  </si>
+  <si>
+    <t>CLOUD KITCHEN using Camunda</t>
+  </si>
+  <si>
+    <t>Stack,Queue,linked list,map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task </t>
+  </si>
+  <si>
+    <t>hashmap program</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over all revision </t>
   </si>
 </sst>
 </file>
@@ -580,7 +613,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,39 +737,89 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B8230-A96F-4AB6-B7D0-EBD38AA252F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB06055-3A67-4DD4-9D14-ECBA8CCB77A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>SlNo</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t xml:space="preserve">over all revision </t>
+  </si>
+  <si>
+    <t>hashmap,hashtable,packages</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>hashtable program</t>
+  </si>
+  <si>
+    <t>previous class revision core java</t>
+  </si>
+  <si>
+    <t>3.5 hours</t>
   </si>
 </sst>
 </file>
@@ -613,7 +631,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,12 +687,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>44351</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -686,12 +700,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>44351</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
@@ -703,12 +713,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10">
-        <v>44352</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,12 +726,8 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>44352</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
@@ -738,7 +740,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10">
         <v>44354</v>
@@ -754,12 +756,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
@@ -771,12 +769,8 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
@@ -788,12 +782,8 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
@@ -805,12 +795,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
@@ -822,25 +808,47 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB06055-3A67-4DD4-9D14-ECBA8CCB77A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD54975-64DB-419E-93A4-F792DA59A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>3.5 hours</t>
+  </si>
+  <si>
+    <t>Traning session</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Creating paragraph,login,registration using HTML</t>
   </si>
 </sst>
 </file>
@@ -631,7 +640,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,25 +860,47 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD54975-64DB-419E-93A4-F792DA59A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82588B7B-B8EB-4BEA-905E-FD3AB05AF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>SlNo</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>Creating paragraph,login,registration using HTML</t>
+  </si>
+  <si>
+    <t>BPM Training</t>
+  </si>
+  <si>
+    <t>overview BPM and examples</t>
+  </si>
+  <si>
+    <t>Previous class concept and server</t>
+  </si>
+  <si>
+    <t>design a webpage format</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5hours     </t>
   </si>
 </sst>
 </file>
@@ -640,7 +658,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,32 +921,60 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82588B7B-B8EB-4BEA-905E-FD3AB05AF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBBFFD-E6BE-4E32-BC22-E5D286211EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>SlNo</t>
   </si>
@@ -47,15 +47,9 @@
     <t>collection framework</t>
   </si>
   <si>
-    <t>3 hours</t>
-  </si>
-  <si>
     <t>what is BPM</t>
   </si>
   <si>
-    <t>1 hours</t>
-  </si>
-  <si>
     <t>practice</t>
   </si>
   <si>
@@ -65,15 +59,9 @@
     <t>practice program</t>
   </si>
   <si>
-    <t>4 hours</t>
-  </si>
-  <si>
     <t>BPMN</t>
   </si>
   <si>
-    <t>5 hours</t>
-  </si>
-  <si>
     <t xml:space="preserve"> How to use CAMUNDA and taskpractice </t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>JAVA training</t>
   </si>
   <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>BPM process</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>hashmap,hashtable,packages</t>
   </si>
   <si>
-    <t>2.5 hours</t>
-  </si>
-  <si>
     <t>task</t>
   </si>
   <si>
@@ -128,9 +110,6 @@
     <t>previous class revision core java</t>
   </si>
   <si>
-    <t>3.5 hours</t>
-  </si>
-  <si>
     <t>Traning session</t>
   </si>
   <si>
@@ -152,10 +131,16 @@
     <t>design a webpage format</t>
   </si>
   <si>
-    <t>1.5 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5hours     </t>
+    <t>training</t>
+  </si>
+  <si>
+    <t>data structures</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>over all concepts</t>
   </si>
 </sst>
 </file>
@@ -657,9 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -709,60 +692,60 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
+      <c r="F7" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -773,65 +756,65 @@
         <v>44354</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -842,39 +825,39 @@
         <v>44355</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>35</v>
+      <c r="F16" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -885,39 +868,39 @@
         <v>44356</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -928,67 +911,83 @@
         <v>44357</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBBFFD-E6BE-4E32-BC22-E5D286211EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7DF30-5948-44F3-9AC3-9A5BCE47FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>SlNo</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>over all concepts</t>
+  </si>
+  <si>
+    <t>jAVA training</t>
+  </si>
+  <si>
+    <t>servelet process</t>
+  </si>
+  <si>
+    <t>topic revision</t>
+  </si>
+  <si>
+    <t>tomcat working process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous class topic </t>
   </si>
 </sst>
 </file>
@@ -642,7 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -990,25 +1007,47 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7DF30-5948-44F3-9AC3-9A5BCE47FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E21C329-6500-4365-B2CC-3ED5EF7CDD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E21C329-6500-4365-B2CC-3ED5EF7CDD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5910E03-A18A-479C-8CC2-60962D58BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>SlNo</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t xml:space="preserve">previous class topic </t>
+  </si>
+  <si>
+    <t>Servelet ,exception handing,interface,abstraction</t>
+  </si>
+  <si>
+    <t>servelet concept basics</t>
+  </si>
+  <si>
+    <t>previous topic</t>
+  </si>
+  <si>
+    <t>revise previous concept</t>
   </si>
 </sst>
 </file>
@@ -657,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,25 +1062,47 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5910E03-A18A-479C-8CC2-60962D58BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4DAC33-6450-443D-84F9-C08C1E010863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>SlNo</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>revise previous concept</t>
+  </si>
+  <si>
+    <t>HTML,CSS,THREAD CONCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice </t>
+  </si>
+  <si>
+    <t>html,css,thread CONCEPT</t>
+  </si>
+  <si>
+    <t>core java</t>
   </si>
 </sst>
 </file>
@@ -669,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,25 +1117,47 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4DAC33-6450-443D-84F9-C08C1E010863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB9CCE-4BC3-41FB-8FC7-56BD6FF99E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>SlNo</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>core java</t>
+  </si>
+  <si>
+    <t>exception handing,interface over all concepts</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>Bpm,Jbpm concept</t>
+  </si>
+  <si>
+    <t>previous topic,core java concept,exception handing</t>
   </si>
 </sst>
 </file>
@@ -681,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,25 +1172,47 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB9CCE-4BC3-41FB-8FC7-56BD6FF99E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF7E93-EA79-44A8-A189-48349048F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Bpm,Jbpm concept</t>
   </si>
   <si>
-    <t>previous topic,core java concept,exception handing</t>
+    <t>previous topic,core java concept,exception handing.</t>
   </si>
 </sst>
 </file>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF7E93-EA79-44A8-A189-48349048F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2B3AC-4F3B-4F2A-A5BD-D7DAABA056B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>SlNo</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>previous topic,core java concept,exception handing.</t>
+  </si>
+  <si>
+    <t>Collection and Exception</t>
+  </si>
+  <si>
+    <t>REVISION</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>JBPM</t>
   </si>
 </sst>
 </file>
@@ -693,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,32 +1227,60 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2B3AC-4F3B-4F2A-A5BD-D7DAABA056B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3F471-3CAC-4BAF-9F90-87AE061FA92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>SlNo</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>JBPM</t>
+  </si>
+  <si>
+    <t>camunda training</t>
+  </si>
+  <si>
+    <t>user task</t>
+  </si>
+  <si>
+    <t>service and user task revision</t>
   </si>
 </sst>
 </file>
@@ -705,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,18 +1292,34 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3F471-3CAC-4BAF-9F90-87AE061FA92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED2C6BF-C2E0-4500-8E89-8E5BC39E2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>SlNo</t>
   </si>
@@ -212,7 +212,25 @@
     <t>user task</t>
   </si>
   <si>
-    <t>service and user task revision</t>
+    <t>camunda basic concept</t>
+  </si>
+  <si>
+    <t>camunda basic task</t>
+  </si>
+  <si>
+    <t>camunda concept</t>
+  </si>
+  <si>
+    <t>camunda previous topic concept</t>
+  </si>
+  <si>
+    <t>camunda task</t>
+  </si>
+  <si>
+    <t>user task cocept</t>
+  </si>
+  <si>
+    <t>user task example</t>
   </si>
 </sst>
 </file>
@@ -714,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,76 +1314,120 @@
         <v>12</v>
       </c>
       <c r="C42" s="10">
-        <v>44368</v>
+        <v>44366</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F42" s="3">
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44367</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>14</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED2C6BF-C2E0-4500-8E89-8E5BC39E2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0E0F1-954D-4416-9E52-228973A29CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>SlNo</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>user task example</t>
+  </si>
+  <si>
+    <t>send task</t>
+  </si>
+  <si>
+    <t>java training</t>
+  </si>
+  <si>
+    <t>collections in java</t>
+  </si>
+  <si>
+    <t>camunda revision</t>
+  </si>
+  <si>
+    <t>task concepts</t>
+  </si>
+  <si>
+    <t>colletion revision</t>
   </si>
 </sst>
 </file>
@@ -733,7 +751,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,32 +1444,60 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0E0F1-954D-4416-9E52-228973A29CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE84C3B-F1D5-44F9-8716-9D676FAFAE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>SlNo</t>
   </si>
@@ -249,6 +249,21 @@
   </si>
   <si>
     <t>colletion revision</t>
+  </si>
+  <si>
+    <t>subprocess task</t>
+  </si>
+  <si>
+    <t>camunda  task</t>
+  </si>
+  <si>
+    <t>jAVA task</t>
+  </si>
+  <si>
+    <t>java revision</t>
+  </si>
+  <si>
+    <t>collection concepts</t>
   </si>
 </sst>
 </file>
@@ -750,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,46 +1515,86 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="B54" s="2">
+        <v>16</v>
+      </c>
+      <c r="C54" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE84C3B-F1D5-44F9-8716-9D676FAFAE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C9ECE-58B7-4736-9FA0-52FCCD2E0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>SlNo</t>
   </si>
@@ -264,6 +264,27 @@
   </si>
   <si>
     <t>collection concepts</t>
+  </si>
+  <si>
+    <t>Camunda Training</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>previous topic Revision,collections</t>
+  </si>
+  <si>
+    <t>Camunda task</t>
+  </si>
+  <si>
+    <t>sub process task,Embedded Task</t>
+  </si>
+  <si>
+    <t>previous topic revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
   </si>
 </sst>
 </file>
@@ -765,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,39 +1618,73 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="B60" s="2">
+        <v>17</v>
+      </c>
+      <c r="C60" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C9ECE-58B7-4736-9FA0-52FCCD2E0CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DFD2A-8FAF-4A57-991D-AFFF7F3DD822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>SlNo</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>camunda session</t>
+  </si>
+  <si>
+    <t>Java session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java topic </t>
+  </si>
+  <si>
+    <t>learn about parallel gateway and subprocess</t>
+  </si>
+  <si>
+    <t>learn treeset and collection</t>
+  </si>
+  <si>
+    <t>java engine rule concepts</t>
+  </si>
+  <si>
+    <t>task,sub process,event</t>
+  </si>
+  <si>
+    <t>workflow all concepts</t>
+  </si>
+  <si>
+    <t>revise all concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task using all workflow concepts </t>
   </si>
 </sst>
 </file>
@@ -786,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,60 +1717,120 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="2">
+        <v>18</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="B69" s="2">
+        <v>19</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44373</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="B71" s="2">
+        <v>20</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44374</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DFD2A-8FAF-4A57-991D-AFFF7F3DD822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C153011-920C-4DFC-8C2D-DCFB12C3D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
   <si>
     <t>SlNo</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t xml:space="preserve">task using all workflow concepts </t>
+  </si>
+  <si>
+    <t>process instance variable</t>
+  </si>
+  <si>
+    <t>java concepts</t>
+  </si>
+  <si>
+    <t>collection ,tree concepts</t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,25 +1842,47 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="B73" s="2">
+        <v>21</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="D75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C153011-920C-4DFC-8C2D-DCFB12C3D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DB386-E8B0-425E-AE6C-E1C1DE694CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,8 +1885,12 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="2">
+        <v>22</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44376</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DB386-E8B0-425E-AE6C-E1C1DE694CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54D71F-53A1-4F00-981D-394D0FCF68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>SlNo</t>
   </si>
@@ -324,6 +324,27 @@
   </si>
   <si>
     <t>collection ,tree concepts</t>
+  </si>
+  <si>
+    <t>Client server,REST API</t>
+  </si>
+  <si>
+    <t>JSP and servlet</t>
+  </si>
+  <si>
+    <t>Instance variable,workflow task</t>
+  </si>
+  <si>
+    <t>servlet cocepts</t>
+  </si>
+  <si>
+    <t>Spring boot concepts</t>
+  </si>
+  <si>
+    <t>JSP and servlet,JDBC Connectivity</t>
+  </si>
+  <si>
+    <t>previous task ,spring boot concepts</t>
   </si>
 </sst>
 </file>
@@ -825,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,51 +1912,97 @@
       <c r="C76" s="10">
         <v>44376</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="D78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="B80" s="2">
+        <v>23</v>
+      </c>
+      <c r="C80" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="D81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="D82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54D71F-53A1-4F00-981D-394D0FCF68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DE53A-A29B-41A9-9C9E-B8C1C73317A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>SlNo</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>previous task ,spring boot concepts</t>
+  </si>
+  <si>
+    <t>Run time service</t>
+  </si>
+  <si>
+    <t>previous day task</t>
+  </si>
+  <si>
+    <t>java task</t>
+  </si>
+  <si>
+    <t>java revision previous concepts</t>
   </si>
 </sst>
 </file>
@@ -846,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,25 +2017,47 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="B83" s="2">
+        <v>24</v>
+      </c>
+      <c r="C83" s="10">
+        <v>44378</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_June_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DE53A-A29B-41A9-9C9E-B8C1C73317A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD7A53-F7AE-48E2-95FA-73367D1DCB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
